--- a/wwwroot/templates/DeNghiChi.xlsx
+++ b/wwwroot/templates/DeNghiChi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Tam\source\repos\Finance_HD\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250FBA2B-3BDC-4162-95A4-F1881E31DA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FA766-2B4C-4AEB-AF17-7D9C7D1268BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02DBC9B8-D3E6-4C0B-8F2F-A169158D83D2}"/>
   </bookViews>
@@ -25,18 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TRẠNG THÁI</t>
-  </si>
-  <si>
-    <t>Camera IP thông minh</t>
-  </si>
-  <si>
-    <t>seo</t>
-  </si>
-  <si>
-    <t>Hoạt động</t>
   </si>
   <si>
     <t>DANH SÁCH ĐỀ NGHỊ CHI</t>
@@ -177,10 +168,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +489,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,128 +516,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="O4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>45301</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/wwwroot/templates/DeNghiChi.xlsx
+++ b/wwwroot/templates/DeNghiChi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Tam\source\repos\Finance_HD\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1FA766-2B4C-4AEB-AF17-7D9C7D1268BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C1FE1-B020-49F1-8FC3-EF43C58A7454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02DBC9B8-D3E6-4C0B-8F2F-A169158D83D2}"/>
   </bookViews>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,7 +168,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1385440-A69F-467C-AE83-B990680699FE}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,40 +515,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -570,40 +569,40 @@
       <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -624,8 +623,8 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/wwwroot/templates/DeNghiChi.xlsx
+++ b/wwwroot/templates/DeNghiChi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Tam\source\repos\Finance_HD\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C1FE1-B020-49F1-8FC3-EF43C58A7454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC2FE19-9F4B-4EEB-A7F8-C4F764550E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02DBC9B8-D3E6-4C0B-8F2F-A169158D83D2}"/>
   </bookViews>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -171,6 +171,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1385440-A69F-467C-AE83-B990680699FE}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +616,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -624,7 +625,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
